--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H2">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I2">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J2">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +558,22 @@
         <v>5.12336</v>
       </c>
       <c r="O2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q2">
-        <v>64.97540389569777</v>
+        <v>30.23882157687111</v>
       </c>
       <c r="R2">
-        <v>584.7786350612799</v>
+        <v>272.14939419184</v>
       </c>
       <c r="S2">
-        <v>0.7090709110010405</v>
+        <v>0.3106343723182703</v>
       </c>
       <c r="T2">
-        <v>0.7090709110010405</v>
+        <v>0.3106343723182703</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H3">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I3">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J3">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N3">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q3">
-        <v>9.163361227786</v>
+        <v>12.40075223772245</v>
       </c>
       <c r="R3">
-        <v>82.470251050074</v>
+        <v>111.606770139502</v>
       </c>
       <c r="S3">
-        <v>0.0999989612076586</v>
+        <v>0.1273892197765296</v>
       </c>
       <c r="T3">
-        <v>0.0999989612076586</v>
+        <v>0.1273892197765296</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H4">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I4">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J4">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.12336</v>
       </c>
       <c r="O4">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P4">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q4">
-        <v>2.761910016995555</v>
+        <v>2.761910016995556</v>
       </c>
       <c r="R4">
         <v>24.85719015296</v>
       </c>
       <c r="S4">
-        <v>0.03014048292793466</v>
+        <v>0.02837227576306006</v>
       </c>
       <c r="T4">
-        <v>0.03014048292793466</v>
+        <v>0.02837227576306006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H5">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I5">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J5">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N5">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O5">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P5">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q5">
-        <v>0.389507069552</v>
+        <v>1.132642081854223</v>
       </c>
       <c r="R5">
-        <v>3.505563625968</v>
+        <v>10.193778736688</v>
       </c>
       <c r="S5">
-        <v>0.004250656649890707</v>
+        <v>0.01163529343442261</v>
       </c>
       <c r="T5">
-        <v>0.004250656649890707</v>
+        <v>0.01163529343442261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H6">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I6">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J6">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>5.12336</v>
       </c>
       <c r="O6">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P6">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q6">
-        <v>12.57145313893333</v>
+        <v>36.03395540154666</v>
       </c>
       <c r="R6">
-        <v>113.1430782504</v>
+        <v>324.30559861392</v>
       </c>
       <c r="S6">
-        <v>0.1371911707411576</v>
+        <v>0.370166049290278</v>
       </c>
       <c r="T6">
-        <v>0.1371911707411576</v>
+        <v>0.370166049290278</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H7">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I7">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J7">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N7">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O7">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P7">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q7">
-        <v>1.77292882173</v>
+        <v>14.77730049578067</v>
       </c>
       <c r="R7">
-        <v>15.95635939557</v>
+        <v>132.995704462026</v>
       </c>
       <c r="S7">
-        <v>0.01934781747231788</v>
+        <v>0.1518027894174395</v>
       </c>
       <c r="T7">
-        <v>0.01934781747231788</v>
+        <v>0.1518027894174395</v>
       </c>
     </row>
   </sheetData>
